--- a/完整景點資料庫.xlsx
+++ b/完整景點資料庫.xlsx
@@ -2087,9 +2087,6 @@
     <t>林秀俊墓</t>
   </si>
   <si>
-    <t>臺北盆地是清初少數漳泉及粵人入墾所開發起來的，其中林秀俊被認為是相當重要的一位開拓先驅。林秀俊，號「成祖」，生於康熙三十八年〈西元一六九九年〉，卒於乾隆三十五年〈西元一七七０年〉，享年七十二歲。福建漳州人，弱冠離鄉來臺開墾，五十歲以後自號「林成祖」，致力擺接堡及大加蚋堡一帶的墾拓與開圳，其開墾範圍包括今板橋、土城、永和、中和及內湖一帶。墓的形制採用傳統閩南式，以墓丘為中心，前置石雕墓碑，左右肩石夾立，矮垣層層彎曲伸出，呈環抱狀，前有寬廣的墓庭，格局開展，係由傳統風水理論所建造出來的結果，為臺北盆地內少數完整保存的清代大墓。</t>
-  </si>
-  <si>
     <t>臺北市內湖區文德段5小段333.333-1號</t>
   </si>
   <si>
@@ -2105,9 +2102,6 @@
     <t>內湖庄役場會議室</t>
   </si>
   <si>
-    <t>內湖在日治中期約大正九年（西元一九二０年）設置內湖庄，隸屬台北州七星郡管轄。具備庄之建置，乃建立庄役場，戰後改為鄉公所。所以庄役場是內湖地區發展史之見證與里程碑。於一九三五年前後建造庄役場的會議室，採用當時流行的建築式樣，至今保存尚稱完整。這座會議室座落在內湖老市街核心地區，高大的屋頂及入口立面，長期以來已經成為內湖民眾記憶中的一部分，在近代急速的都市發展過程裡，具有重要的意義。內湖庄役場的會議室的平面為長方形，坐南朝北，格局方整，入口面臨內湖老街。其入口設在大山牆的中央，三角形的山牆上闢三個圓窗，周圍佈滿裝飾，其天際線呈階梯式造型，此為典型的二０年代盛行的藝術裝飾主義特色。入口雨庇呈水平線條，兩側作半圓柱，柱身以洗石子作分段式造型，有如石構造之縫隙。柱前有裝飾主義濃厚的矮牆。值得注意的是牆上使用網紋淺綠色釉面磚，不反光，這是當時開始運用的具有防空作用的國防色面磚。</t>
-  </si>
-  <si>
     <t>臺北市內湖路二段342號</t>
   </si>
   <si>
@@ -2117,9 +2111,6 @@
     <t>內湖郭氏古宅</t>
   </si>
   <si>
-    <t>內湖在日治時期首任庄長郭氏之宅邸，位於內湖市街西側山丘上。大約建於日治大正八年（西元一九一九年），當時臺灣社會安定，經濟景氣良好，官方建築的式樣也影響了民間住宅，例如臺北市迪化街的店屋立面多流行巴洛克的繁飾，使用紅磚、洗石子、泥塑與彩色瓷磚裝飾，亦被稱為大正型建築。內湖郭氏宅邸即屬於這時期的典型豪宅。郭氏古宅座落於小丘山腰上，坐北朝南，三面樹林環繞，形勢極為幽勝。古宅平面略呈Ｔ字形，全為磚木構造，外牆使用日治大正年間盛行的紅磚砌成，並有洗石子及日本進口的彩瓷裝飾。室內樓板則為木造，以眾多的木樑支撐樓板重量，且有燈樑，可以懸掛臺灣傳統的天公爐及燈籠。正立面的窗子形式富於變化，並有弧形陽台凸出來，山頭造型接近於仿巴洛克風格，富卷草曲線之美。近年山頭題額為碧奉宮，乃是欲轉改為寺廟所致，但未實現。</t>
-  </si>
-  <si>
     <t>臺北市內湖區文德路241巷19號</t>
   </si>
   <si>
@@ -2129,27 +2120,18 @@
     <t>十四份圳舊水閘門</t>
   </si>
   <si>
-    <t>「大湖公園」舊稱「十四份陂」，為內湖墾戶林秀俊家族所築，自清代至日據時期，作為內湖地區灌溉用水之用。日明治40年（西元1907年）7月，核定為公共埤圳，並修建水閘門等附屬設施。現存之水閘門可作為內湖地區開拓史、水利史與農業發展史的重要見證，具保存價值。</t>
-  </si>
-  <si>
     <t>臺北市內湖區大湖南端</t>
   </si>
   <si>
     <t>五分吊橋</t>
   </si>
   <si>
-    <t>為臺北市區基隆河少數現存之吊橋遺址。吊橋之設立係作為早期內湖地區運送煤礦之交通要道，其遺址乃地方產業發展之歷史見證。該吊橋為內湖區跨越基隆河最早的一座煤炭運輸專用吊橋，吊橋橋面已於民國60、70年間拆除，目前只殘留北河岸的橋柱。其構造為RC，大體尚完整，以2柱及2樑組成，其中有半圓拱樑，柱之下端有扶壁（Buttress），結構及造型具有特色。</t>
-  </si>
-  <si>
     <t>臺北市內湖區安康路402號旁涵洞另一側</t>
   </si>
   <si>
     <t>碧山巖開漳聖王廟</t>
   </si>
   <si>
-    <t>奉祀主神是「開漳聖王」陳元光，字廷炬，號龍湖，是福建省漳州府首任刺史。開基祖廟(石室)依舊文獻資料記載是清嘉慶十九年(1814)所創建，石室體積為140×170×168公分，內供奉三塊「神石」(開漳聖王與兩位隨從之化身)。民國五十二年，正殿重建完成；六十五年，前殿(三川殿)含地下六層樓、鐘鼓樓、崇聖台、八角樓等主體工程竣工，之後再細部裝飾。台灣最大的開漳聖王廟之一。立於前殿的廟埕上，是最佳的鳥瞰大臺北盆地眺望點。農曆六月初七日凌晨子時起，舉辦傳統民間信仰一「開天門」延壽活動，十月初一至初七日，是一年一度的祈安禮斗法會。今日，所呈現的是一座建築雄偉、美輪美奐。</t>
-  </si>
-  <si>
     <t>臺北市內湖區碧山路24號</t>
   </si>
   <si>
@@ -2165,9 +2147,6 @@
     <t>亞洲寵物博物館</t>
   </si>
   <si>
-    <t>平時是照顧寵物的地方，有提供動物寄宿，由亞洲動物福利協會(AAWA)創辦，致力於兒童生命教育，因而推動「小獸醫體驗」活動，培養孩子對動物的同理心與共感能力。博物館展覽空間共分為：診療體驗區、影像體驗區、手術體驗區、寵物追思區。</t>
-  </si>
-  <si>
     <t>臺北市內湖區舊宗路一段30巷13號</t>
   </si>
   <si>
@@ -2177,36 +2156,24 @@
     <t>國立臺灣戲曲學院京劇文物館</t>
   </si>
   <si>
-    <t>提供專業（中、英、日語）導覽人員，有系統的介紹傳統戲曲舞台服飾、道具、樂器、戲曲兵器及戲曲源流演進等內容。其中包括觸手可及的距離展示戲曲道具及舞台真人尺寸戲偶模型、清朝時代仿古野戲台造模型。獨一無二的戲曲角色舞台程式化動作，加深觀賞者對傳統戲曲的認識。</t>
-  </si>
-  <si>
     <t>臺北市內湖區內湖路二段177號</t>
   </si>
   <si>
     <t>碧湖劇場</t>
   </si>
   <si>
-    <t>嚴長壽先生與當時國立戲曲學院校長陳守讓前校長洽談，希望學校每周有三天固定的表演，由本校京崑劇團與特技團員演出，增加光觀光客來台意願，結合故宮博物院、忠烈祠、中影文化城，推動並形成一條「靜態文化看故宮，動態文化看復興」的帶狀文化觀光路線，因此將本校的觀光戲向外推廣出去，並沿傳至今。</t>
-  </si>
-  <si>
     <t>臺北市內湖區內湖路二段177號中正堂與中興堂演藝廳</t>
   </si>
   <si>
     <t>白石畫廊</t>
   </si>
   <si>
-    <t>專門代理日本當代藝術作品的展覽空間，1967年發跡於東京銀座，隨後分別進駐輕井澤、香港及甫開幕的台北內湖。開幕最大的話題，就是日本建築大師隈研吾，利用台灣檜木，所打造的木建築空間。此次所使用的建築工法，也將套用在他所設計的2020年東京奧運主場館。台灣觀眾可以在白石畫廊，搶先一睹東京奧運主場館的設計精華。</t>
-  </si>
-  <si>
     <t>臺北市內湖區基湖路1號</t>
   </si>
   <si>
     <t>防災科學教育館</t>
   </si>
   <si>
-    <t>為了讓市民了解各種災害的歷史及特質，臺北市政府消防局防災科學教育以電腦、電子、機械設備，模擬各種災害發生狀況，供市民實地操作體驗，使防火、防洪、防震、防颱等緊急避難知能，自然地融入日常生活中，以「寓教於樂」方式，提昇市民災害應變能力。（84年）7月10日，臺北市政府消防局改制成立，為提昇市民防災教育讓市民同胞體驗災害，進而了解防災的重要性，著手規劃設置臺灣第一座防災科學教育館。</t>
-  </si>
-  <si>
     <t>臺北市內湖區成功路二段376號</t>
   </si>
   <si>
@@ -2234,9 +2201,6 @@
     <t>碧山路老地層景觀</t>
   </si>
   <si>
-    <t>本路段地層景觀係2,000萬年前臺北老地層中，地質(地理)特徵變化較多而較容易親近觀賞之處。此路段可發現到波紋岩、濱海相砂岩、造山褶曲現象、交錯形岩層、鋸齒狀岩層節理景觀、小斷層、砂頁岩交替層等，是臺北市最佳的欣賞老地層景觀據點之一，也是提供地理鄉土教學的好場所。</t>
-  </si>
-  <si>
     <t>臺北市內湖區碧山路9-11號</t>
   </si>
   <si>
@@ -2252,48 +2216,30 @@
     <t>白石湖吊橋</t>
   </si>
   <si>
-    <t>白石湖吊橋位於內湖白石湖休閒農業區內，吊橋入口位於碧山巖開漳聖王廟的停車場旁，全長116公尺，橫跨忠勇山及大崙頭山系。特別採龍骨意象塑造，從東邊「龍船岩」連接白石湖山、大崙頭山、忠勇山、鯉魚山，至圓覺瀑布而止，從空中俯瞰，就像是一條巨龍盤據，守護著白石湖地區。白石湖吊橋串連起周邊山寺、果園、森林步道、溼地湖泊，置身其中可欣賞到美麗花卉及悅耳的叢林鳥叫聲，為民眾休閒遊憩的好去處。</t>
-  </si>
-  <si>
     <t>白鷺山五○彎步道</t>
   </si>
   <si>
-    <t>「白鷺山」又名「埤頭尖山」，或稱「白鷺鷥山」；日據時期，每年四月起，「白鷺山」北坡白鷺鷥成群聚集，一直到十月份，才南飛避冬；尤其在六至八月間，日落黃昏到夜幕低垂，倦鳥歸巢，遠望似繽紛的白牡丹點綴林間，素樸中現多姿。此情此景曾被列為「內湖八大景」之一。</t>
-  </si>
-  <si>
     <t>臺北市內湖區碧山路64號</t>
   </si>
   <si>
     <t>碧湖公園</t>
   </si>
   <si>
-    <t>位於臺北市內湖區的碧湖公園擁有大湖泊的水景公園，周遭山巒層疊的環境，面積超過13公頃，前擁大坡湖後環山，湖畔景色渾然一體，宛如一座古典庭園。公園設有游泳池、網球場、兒童遊樂區、觀景台、管理中心及湖濱步道等，園中甚至規劃有釣魚區，是擁有多種娛樂功能的公園。另有6條登山小徑，拾級而上，立於山巔俯視而下，碧湖美景盡收眼底。</t>
-  </si>
-  <si>
     <t>臺北市內湖區內湖路二段175號</t>
   </si>
   <si>
     <t>碧湖露營場</t>
   </si>
   <si>
-    <t>可容納250人露宿的露營場，是臺北市僅有的2處露營場地之一，也是全國少有的免費露營場。碧山露營場大致分為三個區域：森林步道、露營區和遊憩活動區。碧山露營場森林步道區內，有長約1公里的棧道，來回行程約半小時，徜徉在碧山蒼翠的樹林內漫步，閒雲野鶴的樂趣，是一大幸福。因山區光害少，是臺北觀星最好的地方，山上夜景更是美麗，可遠望觀音山及士林北投夜色。</t>
-  </si>
-  <si>
     <t>西湖萬壽仙老樟樹</t>
   </si>
   <si>
-    <t>此棵老樟是在本區平地部份，唯一最粗大的巨木，樹胸圍約425公分。樹幹上攀附一株雀榕，彼此著生；由於雀榕有旺盛的生命力，使得寬廣、濃密的雀榕樹冠，直接影響到樟樹的生長；同時，應監控雀榕氣根的「纏勒現象」。樹下的健康步道，應拆除改鋪成透水式空心磚，好讓雨水直接滲透到地層裡，提供充足水份助其正常發育。</t>
-  </si>
-  <si>
     <t>臺北市內湖區碧山路26-6號114 號</t>
   </si>
   <si>
     <t>臺北花市</t>
   </si>
   <si>
-    <t>1. 全省切花電腦拍賣、電腦訂貨交易運作。2. 全省盆花電腦訂貨交易、現貨交易展售。3. 交易行情資訊發布與查詢服務。4. 花卉推廣促銷活動運作。5. 臺北花卉批發市場業務經營。6. 臺北花卉批發市場安全維護管理。7. 花卉生產、加工、分裝、儲存等業務經營。8. 花卉進出口業務經營。9. 花卉相關材料、器材、種苗等事項經營。</t>
-  </si>
-  <si>
     <t>臺北市內湖區臺北市內湖區新湖三路28號, 36號</t>
   </si>
   <si>
@@ -2312,9 +2258,6 @@
     <t>東湖新商圈</t>
   </si>
   <si>
-    <t>位於東湖捷運站附近，由東湖地區商店街及哈拉影城等構成，其中影城為歐洲城堡式建築外觀、巴洛克風格的裝置藝術，成為東湖地區地標，是一處結合精品時尚、生活百貨、影城、中西式餐飲、3C商品、書局、KTV等多元化的綜合商城。另外東湖地區商店林立，舉凡食衣住行育樂，樣樣皆備，下捷運站後於街區內逛一整天也不失新鮮感。</t>
-  </si>
-  <si>
     <t>臺北市內湖區康寧路三段72號</t>
   </si>
   <si>
@@ -2357,9 +2300,6 @@
     <t>王義德墓</t>
   </si>
   <si>
-    <t>王義德家族史與臺北艋舺發展史密不可分，為重要郊商。創建年代約建於咸豐八年(1858年，戊午年)，歷時100餘年。本墓在石材上屬泉州花崗白石，形式上為清代典型墓形，形制完備，包括墓碑、墓丘、墓肩、墓雙曲手、前埕，保存相當完整。</t>
-  </si>
-  <si>
     <t>臺北市南港區昆陽街165號(國防部軍備局生產製造中心第202廠)</t>
   </si>
   <si>
@@ -2384,9 +2324,6 @@
     <t>南港瓶蓋工廠</t>
   </si>
   <si>
-    <t>日據時期(1943年)由日人宇平組設立的「國產軟木工業株式會社」，臺灣光復後由臺灣省專賣局（今臺灣菸酒股份有限公司）接管並先後改名為「木栓工廠」及「臺灣省菸酒公賣局瓶蓋工廠，專門生產公賣局所屬14家酒廠酒類包裝所需各種瓶蓋、軟木栓等產品。</t>
-  </si>
-  <si>
     <t>臺北市南港區南港路2段13號</t>
   </si>
   <si>
@@ -2402,36 +2339,24 @@
     <t>闕家古厝</t>
   </si>
   <si>
-    <t>世居南港的闕家，人丁旺盛，派下分東房朝聘公派下和西房朝熙公派下，闕家古厝『德成居』為朝聘公派下。『德成居』為三合院，古色古香，背山崙尾，朝向東，大埕正廳頂上鋪稻草，每兩年換一次。宅院前圍牆外有池塘，入口處在左端，建有二樓閣房，有瞭望守衛、銃櫃樓之功能。據闕家老者口述：此大厝地理風水為牛穴，山為牛神，大廳頂鋪稻草及前端池塘，均有供牛飲食之意。</t>
-  </si>
-  <si>
     <t>臺北市南港區研究院路一段120號</t>
   </si>
   <si>
     <t>畚箕湖余家古厝</t>
   </si>
   <si>
-    <t>是間完整土埆厝三合院，現今已十分罕見，屋主余仁貴指出，二百年前先祖由安溪來台，在此定居，老厝在百年前曾因陳秋菊抗日，民軍於附近襲殺一日本巡查，遭日警報復於燒莊時波及，重建後保持至今。 屋外有一株高15公尺，胸圍270公分的老樟樹，佇立在老厝入口處，老樟樹在日治年代曾被樟腦專賣會社列入砍伐名單，在余家私賄下，倖存下來。</t>
-  </si>
-  <si>
     <t>臺北市南港區舊莊路二段316巷5號</t>
   </si>
   <si>
     <t>胡適紀念館</t>
   </si>
   <si>
-    <t>胡適紀念館包含三部份，一為胡適先生晚年回台灣出任中研院院長的南港住宅，建築本體與擺設大體上保持原貌。二為陳列室：由美國美亞保險公司史帶 (C. V. Starr) 捐贈建造，展示胡適先生的著作、手稿、照片、遺物與紀念物，以及胡適在台灣的記錄片等。三為胡適公園：公園內保有胡適先生的墓園，依丘阜拾級而上，曲徑濃蔭，有山林幽靜景緻，來此瞻仰墓園之餘，還可以享受自然美景。</t>
-  </si>
-  <si>
     <t>臺北市南港區研究院路二段130號</t>
   </si>
   <si>
     <t>蔡元培紀念館</t>
   </si>
   <si>
-    <t>蔡元培紀念館係於1959年胡適院長任內，由美國亞洲基金會捐款興建，早年亦是本院召開院士會議及評議會之所在。以開放式空間展示蔡元培先生手稿、著作，並有一獨立文獻庫陳列先生與重要友人之往來及生平事蹟等。打破舊有空間內與外、正與反、陰與陽的二元性，以自然、開放與多樣性的多元觀點建立新空間的價值，具有承先啟後的濃厚意義。</t>
-  </si>
-  <si>
     <t>臺北市南港區研究院路二段128號</t>
   </si>
   <si>
@@ -2441,24 +2366,15 @@
     <t>中研院歷史文物陳列館</t>
   </si>
   <si>
-    <t>本所第一任所長傅斯年先生於1928年創建歷史語言研究所，並以史語所優越的組織與研究能力為後盾，於1933年委託成立了中央博物院籌備處。他認為博物館主要目的在教育民眾，以提升國民素質，開啟國人文化視野。他的博物館理念帶有濃厚的自然史博物館性質，與收藏展示古董的博物館截然異趣。本館的館藏品與一般藝術博物館所蒐集的藏品最大不同處在於﹕它們不僅具備文物本身的歷史文化與考古知識的價值，同時也具體說明史語所自 1920年代後期以來 ，以及 近代中國學術史的發展背景。</t>
-  </si>
-  <si>
     <t>台灣精品館</t>
   </si>
   <si>
-    <t>「台灣精品館」自2011年12月26日開幕，為全台首座彰顯台灣精品「研發創新、設計美學、品質精良、行銷全球」的創新園地。館內1樓大門入口面對花博公園，2樓展館有長期展示區(資通訊展示區、運動休閒區、文創區)及短期主題區(每季更換展品)</t>
-  </si>
-  <si>
     <t>臺北市南港區經貿二路1號</t>
   </si>
   <si>
     <t>幾米主題南港站</t>
   </si>
   <si>
-    <t>南港捷運站大膽引進享譽國際的幾米繪畫，完整表現出捷運站的現代性，既寫實又富美感，也是捷運南港站啟用最受人矚目的話題。站內總共有6幅大型彩色壁畫，其中最大幅長度141公尺、高7公尺，位於候車月台的牆壁上，在幾米細膩的筆觸及觀察下，列車未到，車上風光已經一覽無遺，有看報的阿伯、通勤的上班族，以及沒有座位、百無聊賴的小孩，幻想著巫婆飛過車窗，小豬、兔子在原野上奔跑，與火車競賽的畫面。</t>
-  </si>
-  <si>
     <t>臺北市南港區忠孝東路7段380號</t>
   </si>
   <si>
@@ -2483,9 +2399,6 @@
     <t>大坑溪桂花吊橋親水步道</t>
   </si>
   <si>
-    <t>桂花在南港茶山的栽培歷史幾乎和包種茶一樣久，因為最早它是製作香片花茶的附香材料，此外，當地茶農也採收釀成桂花露。桂花吊橋可說是南港山的秘密花園，小橋流水、精緻迷你，位於示範茶廠環山步道旁，同是平穩且乾淨的步道，兩者總長不到一公里，可居高遠眺臺北盆地，還能見識南港當地特色植物與煤礦露層。</t>
-  </si>
-  <si>
     <t>臺北市南港區舊莊街二段334號</t>
   </si>
   <si>
@@ -2498,27 +2411,18 @@
     <t>南港觀光茶園</t>
   </si>
   <si>
-    <t>海拔200至300公尺，土壤富含岩礫，雨量適中，非常適合茶樹生長，是百餘年前南港包種茶的發源地，日據時代栽培面積更多達三百多公頃。然而，隨著戰爭與煤礦產業興起，茶園大量減少，直到民國71年臺北市建設局輔導設置觀光茶園，加上當地青年的大力推廣，才重新找回昔日風光。</t>
-  </si>
-  <si>
     <t>臺北市南港區舊莊街二段</t>
   </si>
   <si>
     <t>十八羅漢洞</t>
   </si>
   <si>
-    <t>四分溪南岸之山壁，屬於南港層砂岩，質地堅硬，經侵蝕風化後，形成數個巨大石塊，好似十八個羅漢，故稱之。 從前洞內聚集成千上萬的蝙蝠，又稱為"密婆洞"。 此景色極佳的勝地，民國74年有老師父修行故而封洞，勝地內有一座台北市僅存的木板吊橋，全長50公尺，橋名「舜若多橋」。</t>
-  </si>
-  <si>
     <t>臺北市南港區研究院路三段</t>
   </si>
   <si>
     <t>南港山系-更寮古道親山步道</t>
   </si>
   <si>
-    <t>更寮古道親山步道是早年南港通往深坑和石碇的五條古道中，保存最完整，而且仍在使用中的古道。這條古道不僅是往山豬窟與土庫岳必經的便道，也是探訪古厝遺跡的百年老路。現今古道沿途已鋪上花崗石步階，然而起訖狹窄的路況，仍在在顯現古老粗獷的原始味。更寮古道後段與栳寮古道銜接，也是昔日茶行林立的茶山區，由於古道曾經是運送、製造樟腦的場區，舊名就叫腦寮古道；約110年前，腦寮古道變成茶商與村民最熱絡常走的道路，後來才取諧音栳寮之名，並且沿用至今。</t>
-  </si>
-  <si>
     <t>臺北市南港區舊莊街二段122巷</t>
   </si>
   <si>
@@ -2555,9 +2459,6 @@
     <t>中國信託金融園區</t>
   </si>
   <si>
-    <t>共分為A, B, C三棟，40間以上的餐廳與服飾用品店進駐。內部另設有一「文薈館」，記錄中國信託與臺灣金融發展一同成長的過程、重要的沿革與事蹟，亦展示中國信託金控創辦人辜濓松先生的個人物品、珍貴手稿及辦公用品和與世界各國政要的合影及國際獎章，同時運用高科技3D浮空投影技術，活現辜濓松先生為臺灣爭取外交空間之人生理念。另外有冬季才開放的戶外滑冰場。</t>
-  </si>
-  <si>
     <t>臺北市南港區經貿二路168-188號</t>
   </si>
   <si>
@@ -3129,6 +3030,105 @@
   </si>
   <si>
     <t>臺北市文山區景文街142巷</t>
+  </si>
+  <si>
+    <t>林秀俊被認為是清初開墾台北盆地相當重要的一位開拓先驅。墓的形制採用傳統閩南式，以墓丘為中心，前置石雕墓碑，左右肩石夾立，矮垣層層彎曲伸出，呈環抱狀，前有寬廣的墓庭，由傳統風水理論建造，為臺北盆地內少數完整保存的清代大墓。</t>
+  </si>
+  <si>
+    <t>1920年設置內湖庄，庄役場會議室是內湖地區發展史見證。典型的20年代藝術裝飾主義：山牆圓窗裝飾、階梯式造型天際線、水平線條入口雨庇、兩側半圓柱，柱身洗石子分段式造型。牆上是防空作用的國防色面磚，不反光網紋淺綠色釉面磚。</t>
+  </si>
+  <si>
+    <t>「大湖公園」舊稱「十四份陂」，為內湖墾戶林秀俊家族所築，清代至日據時期，為內湖地區灌溉用水之用。西元1907年，為公共埤圳，並修建水閘門。現存之水閘門可作為內湖地區開拓史、水利史與農業發展史的重要見證，具保存價值。</t>
+  </si>
+  <si>
+    <t>該吊橋為內湖區跨越基隆河最早的一座煤炭運輸專用吊橋，臺北市區基隆河少數現存之吊橋遺址，乃地方產業發展之歷史見證。橋面已於民國60年代拆除，目前只殘留北河岸的橋柱。柱之下端有扶壁（Buttress），結構及造型具有特色。</t>
+  </si>
+  <si>
+    <t>郭氏古宅為日治首任庄長典型豪宅邸，建於1919年。全為磚木構造，外牆用大正年間盛行的紅磚，洗石子及日本進口彩瓷裝飾。樓板為木造，木樑支撐樓板重量，燈樑懸掛臺灣傳統天公爐及燈籠。窗形式多變，弧形陽台凸出，山頭近仿巴洛克。</t>
+  </si>
+  <si>
+    <t>奉祀主神是「開漳聖王」是福建省漳州府首任刺史。清嘉慶十九年(1814)所創建，台灣最大的開漳聖王廟之一。立於前殿的廟埕上，是最佳的鳥瞰大臺北盆地眺望點。農曆六月初七日凌晨子時起，舉辦傳統民間信仰一「開天門」延壽活動。</t>
+  </si>
+  <si>
+    <t>本路段地層景觀係2,000萬年前臺北老地層中，地質特徵變化較多，臺北市最佳的欣賞老地層景觀據點之一。此路段可發現到波紋岩、濱海相砂岩、造山褶曲現象、交錯形岩層、鋸齒狀岩層節理景觀、小斷層、砂頁岩交替層等。</t>
+  </si>
+  <si>
+    <t>白石湖吊橋特別採龍骨意象塑造，從東邊「龍船岩」連接白石湖山、大崙頭山、忠勇山、鯉魚山，至圓覺瀑布而止，從空中俯瞰，就像是一條巨龍盤據，守護著白石湖地區。置身其中可欣賞到周邊山寺、果園、森林步道、溼地湖泊。</t>
+  </si>
+  <si>
+    <t>「白鷺山」又名「埤頭尖山」，或「白鷺鷥山」；日據時期，每年四月起，「白鷺山」北坡白鷺鷥成群聚集，一直到十月份，才南飛避冬；尤其在六至八月間，日落黃昏到夜幕低垂，倦鳥歸巢，遠望似繽紛的白牡丹點綴林間。為「內湖八大景」之一。</t>
+  </si>
+  <si>
+    <t>擁有大湖泊的水景公園，周遭山巒層疊的環境，前擁大坡湖後環山，湖畔景色渾然一體，宛如一座古典庭園。設有游泳池、網球場、兒童遊樂區、觀景台、管理中心及湖濱步道、釣魚區。另有6條登山小徑，碧湖美景盡收眼底。</t>
+  </si>
+  <si>
+    <t>可容納250人露宿的露營場，是臺北市僅有的2處露營場地之一，也是全國少有的免費露營場。因山區光害少，是臺北觀星最好的地方，山上夜景更是美麗，可遠望觀音山及士林北投夜色。</t>
+  </si>
+  <si>
+    <t>本區平地唯一最粗大的巨木，樹胸圍約425公分。樹幹上攀附一株雀榕，雀榕有旺盛的生命力，使寬廣、濃密的雀榕樹冠，直接影響到樟樹。樹下的健康步道，應拆除改鋪成透水式空心磚，好讓雨水直接滲透到地層裡，提供充足水份助其正常發育。</t>
+  </si>
+  <si>
+    <t>切花、盆花電腦拍賣、電腦訂貨交易運作、交易行情資訊發布與查詢服務、花卉推廣促銷活動運作、花卉相關材料、器材、種苗等事項經營。</t>
+  </si>
+  <si>
+    <t>位於東湖捷運站附近，由東湖地區商店街及哈拉影城等構成，其中影城為歐洲城堡式建築外觀、巴洛克風格的裝置藝術，成為東湖地區地標，是一處結合精品時尚、生活百貨、影城、中西式餐飲、3C商品、書局、KTV等多元化的綜合商城。</t>
+  </si>
+  <si>
+    <t>平時有提供動物寄宿，由亞洲動物福利協會(AAWA)創辦，致力於兒童生命教育，推動「小獸醫體驗」活動，培養孩子對動物的同理心與共感能力。博物館展覽空間共分為：診療體驗區、影像體驗區、手術體驗區、寵物追思區。</t>
+  </si>
+  <si>
+    <t>提供（中、英、日語）導覽人員，介紹傳統戲曲舞台服飾、道具、樂器、戲曲兵器及戲曲源流演進等內容。包括戲曲道具及舞台真人尺寸戲偶模型、清朝時代仿古野戲台造模型。獨一無二的戲曲角色舞台程式化動作，加深觀賞者對傳統戲曲的認識。</t>
+  </si>
+  <si>
+    <t>由國立戲曲學院京崑劇團與特技團員演出，增加光觀光客來台意願，結合故宮博物院、忠烈祠、中影文化城，推動並形成一條「靜態文化看故宮，動態文化看復興」的帶狀文化觀光路線。</t>
+  </si>
+  <si>
+    <t>專門代理日本當代藝術作品的展覽空間，1967年發跡於東京銀座，。開幕最大的話題，就是日本建築大師隈研吾，利用台灣檜木，所打造的木建築空間。此次所使用的建築工法，也將套用在他所設計的2020年東京奧運主場館。</t>
+  </si>
+  <si>
+    <t>為了讓市民了解各種災害的歷史及特質，臺北市政府消防局防災科學教育以電腦、電子、機械設備，模擬各種災害發生狀況，供市民實地操作體驗，使防火、防洪、防震、防颱等緊急避難知能。為臺灣第一座防災科學教育館。</t>
+  </si>
+  <si>
+    <t>王義德家族史與臺北艋舺發展史密不可分，為重要郊商。約建於1858年，歷時100餘年。本墓在石材上屬泉州花崗白石，形式上為清代典型墓形，形制完備，包括墓碑、墓丘、墓肩、墓雙曲手、前埕，保存完整。</t>
+  </si>
+  <si>
+    <t>1943年由日人設立的「國產軟木工業株式會社」，臺灣光復後由今臺灣菸酒股份有限公司接管並先後改名為「木栓工廠」及「臺灣省菸酒公賣局瓶蓋工廠」，專門生產公賣局所屬14家酒廠酒類包裝所需各種瓶蓋、軟木栓等產品。</t>
+  </si>
+  <si>
+    <t>世居南港的闕家，人丁旺盛，闕家古厝為三合院，正廳頂上鋪稻草，每兩年換一次。宅院建有二樓閣房，有瞭望守衛之功能。闕家老者口述：此大厝地理風水為牛穴，山為牛神，大廳頂鋪稻草及前端池塘，均有供牛飲食之意。</t>
+  </si>
+  <si>
+    <t>完整土埆厝三合院，現今十分罕見。二百年前先祖由安溪來台，百年前曾因陳秋菊抗日，民軍於附近襲殺一日本巡查，報復燒莊波及重建後保持至今。屋外有胸圍270公分的老樟樹在入口處，日治時曾被樟腦專賣會社列入砍伐，余家私賄倖存下來。</t>
+  </si>
+  <si>
+    <t>桂花在南港茶山的栽培歷史和包種茶一樣久，因為最早它是製作香片花茶的附香材料。桂花吊橋是南港山的秘密花園，小橋流水、精緻迷你，是平穩且乾淨的步道，兩者總長不到一公里，可居高遠眺臺北盆地，能見識南港當地特色植物與煤礦露層。</t>
+  </si>
+  <si>
+    <t>海拔200至300公尺，土壤富含岩礫，雨量適中，適合茶樹生長，是百餘年前南港包種茶的發源地。然而，隨著戰爭與煤礦產業興起，茶園大量減少，民國71年設置觀光茶園，加上當地青年的大力推廣，才重新找回昔日風光。</t>
+  </si>
+  <si>
+    <t>質地堅硬，經侵蝕風化後，形成數個巨大石塊，好似十八個羅漢。從前洞內聚集成千上萬的蝙蝠，又稱為"密婆洞"。民國74年有老師父修行故而封洞，勝地內有一座台北市僅存的木板吊橋，全長50公尺，橋名「舜若多橋」。</t>
+  </si>
+  <si>
+    <t>更寮古道親山步道是早年南港通往深坑和石碇的五條古道中，保存最完整且仍使用的古道。現今已鋪上花崗石步階，然而起訖狹窄的路況，仍顯現古老粗獷的原始味。更寮古道後段與栳寮古道銜接，曾經是運送、製造樟腦的場區，舊名就叫腦寮古道。</t>
+  </si>
+  <si>
+    <t>40間以上的餐廳與服飾用品店進駐。內部另設有一「文薈館」，展示中國信託金控創辦人辜濓松先生的個人物品、珍貴手稿及運用高科技3D浮空投影技術，活現辜濓松先生為臺灣爭取外交空間之人生理念。另外有冬季才開放的戶外滑冰場。</t>
+  </si>
+  <si>
+    <t>一為胡適先生晚年回台灣出任中研院院長的南港住宅，建築本體與擺設大體上保持原貌。二為陳列室：展示胡適先生的著作、手稿、照片、遺物與紀念物，以及胡適在台灣的記錄片等。三為胡適公園：公園內保有胡適先生的墓園。</t>
+  </si>
+  <si>
+    <t>1959年胡適院長任內建立，早年是召開院士會議及評議會所在。以開放空間展示蔡元培先生手稿、著作，陳列先生與重要友人之往來及生平事蹟。以自然、開放與多樣性的多元觀點建立新空間的價值，具有承先啟後的濃厚意義。</t>
+  </si>
+  <si>
+    <t>本館的館藏品與一般藝術博物館所蒐集的藏品最大不同處在於﹕它們不僅具備文物本身的歷史文化與考古知識的價值，同時也具體說明史語所自 1920年代後期以來 ，以及 近代中國學術史的發展背景。</t>
+  </si>
+  <si>
+    <t>為全台首座彰顯台灣精品「研發創新、設計美學、品質精良、行銷全球」的創新園地。館內1樓大門入口面對花博公園，2樓展館有長期展示區(資通訊展示區、運動休閒區、文創區)及短期主題區(每季更換展品)</t>
+  </si>
+  <si>
+    <t>南港捷運站內總共有6幅大型彩色壁畫，在幾米細膩的筆觸及觀察下，列車未到，車上風光已經一覽無遺，有看報的阿伯、通勤的上班族，以及沒有座位、百無聊賴的小孩，幻想著巫婆飛過車窗，小豬、兔子在原野上奔跑，與火車競賽的畫面。</t>
   </si>
 </sst>
 </file>
@@ -3243,517 +3243,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4060,7 +3550,7 @@
   <dimension ref="A1:N321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4142,7 +3632,7 @@
         <v>120</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>67</v>
@@ -4277,7 +3767,7 @@
         <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>27</v>
@@ -4322,7 +3812,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>67</v>
@@ -4367,7 +3857,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>406</v>
@@ -4412,7 +3902,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>27</v>
@@ -4457,7 +3947,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>27</v>
@@ -4502,7 +3992,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>27</v>
@@ -4817,19 +4307,19 @@
         <v>48</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>27</v>
@@ -4997,7 +4487,7 @@
         <v>48</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>414</v>
@@ -5122,7 +4612,7 @@
         <v>424</v>
       </c>
       <c r="E24" s="6">
-        <f>SUM(LEN(D24))</f>
+        <f t="shared" ref="E24:E66" si="1">SUM(LEN(D24))</f>
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -5132,7 +4622,7 @@
         <v>48</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>426</v>
@@ -5167,7 +4657,7 @@
         <v>428</v>
       </c>
       <c r="E25" s="6">
-        <f>SUM(LEN(D25))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -5212,7 +4702,7 @@
         <v>386</v>
       </c>
       <c r="E26" s="6">
-        <f>SUM(LEN(D26))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -5222,7 +4712,7 @@
         <v>120</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>67</v>
@@ -5257,7 +4747,7 @@
         <v>398</v>
       </c>
       <c r="E27" s="6">
-        <f>SUM(LEN(D27))</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -5267,7 +4757,7 @@
         <v>48</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>27</v>
@@ -5302,7 +4792,7 @@
         <v>401</v>
       </c>
       <c r="E28" s="6">
-        <f>SUM(LEN(D28))</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -5312,7 +4802,7 @@
         <v>48</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>67</v>
@@ -5347,7 +4837,7 @@
         <v>404</v>
       </c>
       <c r="E29" s="6">
-        <f>SUM(LEN(D29))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -5357,7 +4847,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>406</v>
@@ -5392,7 +4882,7 @@
         <v>431</v>
       </c>
       <c r="E30" s="6">
-        <f>SUM(LEN(D30))</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -5402,7 +4892,7 @@
         <v>48</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>67</v>
@@ -5437,7 +4927,7 @@
         <v>434</v>
       </c>
       <c r="E31" s="6">
-        <f>SUM(LEN(D31))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -5482,7 +4972,7 @@
         <v>436</v>
       </c>
       <c r="E32" s="6">
-        <f>SUM(LEN(D32))</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -5527,7 +5017,7 @@
         <v>439</v>
       </c>
       <c r="E33" s="6">
-        <f>SUM(LEN(D33))</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -5572,7 +5062,7 @@
         <v>442</v>
       </c>
       <c r="E34" s="6">
-        <f>SUM(LEN(D34))</f>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -5617,7 +5107,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="6">
-        <f>SUM(LEN(D35))</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -5627,7 +5117,7 @@
         <v>100</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>41</v>
@@ -5662,7 +5152,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="6">
-        <f>SUM(LEN(D36))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -5707,7 +5197,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="6">
-        <f>SUM(LEN(D37))</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -5717,7 +5207,7 @@
         <v>100</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>41</v>
@@ -5752,7 +5242,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="6">
-        <f>SUM(LEN(D38))</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -5762,7 +5252,7 @@
         <v>30</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>27</v>
@@ -5797,7 +5287,7 @@
         <v>50</v>
       </c>
       <c r="E39" s="6">
-        <f>SUM(LEN(D39))</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -5807,7 +5297,7 @@
         <v>48</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>27</v>
@@ -5842,7 +5332,7 @@
         <v>53</v>
       </c>
       <c r="E40" s="6">
-        <f>SUM(LEN(D40))</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -5887,7 +5377,7 @@
         <v>57</v>
       </c>
       <c r="E41" s="6">
-        <f>SUM(LEN(D41))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -5932,7 +5422,7 @@
         <v>61</v>
       </c>
       <c r="E42" s="6">
-        <f>SUM(LEN(D42))</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -5977,7 +5467,7 @@
         <v>65</v>
       </c>
       <c r="E43" s="6">
-        <f>SUM(LEN(D43))</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -5987,7 +5477,7 @@
         <v>48</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>67</v>
@@ -6020,7 +5510,7 @@
         <v>46</v>
       </c>
       <c r="E44" s="6">
-        <f>SUM(LEN(D44))</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -6030,7 +5520,7 @@
         <v>48</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>27</v>
@@ -6065,7 +5555,7 @@
         <v>61</v>
       </c>
       <c r="E45" s="6">
-        <f>SUM(LEN(D45))</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -6110,7 +5600,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="6">
-        <f>SUM(LEN(D46))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -6155,7 +5645,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="6">
-        <f>SUM(LEN(D47))</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -6200,7 +5690,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="6">
-        <f>SUM(LEN(D48))</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -6245,7 +5735,7 @@
         <v>80</v>
       </c>
       <c r="E49" s="6">
-        <f>SUM(LEN(D49))</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -6290,7 +5780,7 @@
         <v>83</v>
       </c>
       <c r="E50" s="6">
-        <f>SUM(LEN(D50))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -6335,7 +5825,7 @@
         <v>88</v>
       </c>
       <c r="E51" s="6">
-        <f>SUM(LEN(D51))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -6380,7 +5870,7 @@
         <v>92</v>
       </c>
       <c r="E52" s="6">
-        <f>SUM(LEN(D52))</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -6425,7 +5915,7 @@
         <v>97</v>
       </c>
       <c r="E53" s="6">
-        <f>SUM(LEN(D53))</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -6435,7 +5925,7 @@
         <v>48</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>99</v>
@@ -6470,7 +5960,7 @@
         <v>101</v>
       </c>
       <c r="E54" s="6">
-        <f>SUM(LEN(D54))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -6480,16 +5970,16 @@
         <v>48</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>103</v>
@@ -6515,7 +6005,7 @@
         <v>107</v>
       </c>
       <c r="E55" s="6">
-        <f>SUM(LEN(D55))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -6560,7 +6050,7 @@
         <v>16</v>
       </c>
       <c r="E56" s="6">
-        <f>SUM(LEN(D56))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -6605,7 +6095,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="6">
-        <f>SUM(LEN(D57))</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -6650,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="6">
-        <f>SUM(LEN(D58))</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -6660,7 +6150,7 @@
         <v>150</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>27</v>
@@ -6695,7 +6185,7 @@
         <v>29</v>
       </c>
       <c r="E59" s="6">
-        <f>SUM(LEN(D59))</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -6705,7 +6195,7 @@
         <v>40</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>27</v>
@@ -6740,7 +6230,7 @@
         <v>33</v>
       </c>
       <c r="E60" s="6">
-        <f>SUM(LEN(D60))</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -6785,7 +6275,7 @@
         <v>43</v>
       </c>
       <c r="E61" s="6">
-        <f>SUM(LEN(D61))</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -6795,7 +6285,7 @@
         <v>30</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>27</v>
@@ -6830,7 +6320,7 @@
         <v>46</v>
       </c>
       <c r="E62" s="6">
-        <f>SUM(LEN(D62))</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -6840,7 +6330,7 @@
         <v>48</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>27</v>
@@ -6875,7 +6365,7 @@
         <v>542</v>
       </c>
       <c r="E63" s="6">
-        <f>SUM(LEN(D63))</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -6920,7 +6410,7 @@
         <v>545</v>
       </c>
       <c r="E64" s="6">
-        <f>SUM(LEN(D64))</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -6965,7 +6455,7 @@
         <v>548</v>
       </c>
       <c r="E65" s="6">
-        <f>SUM(LEN(D65))</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -7010,7 +6500,7 @@
         <v>551</v>
       </c>
       <c r="E66" s="6">
-        <f>SUM(LEN(D66))</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -7023,7 +6513,7 @@
         <v>414</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>414</v>
@@ -7055,7 +6545,7 @@
         <v>554</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" ref="E67:E130" si="1">SUM(LEN(D67))</f>
+        <f t="shared" ref="E67:E130" si="2">SUM(LEN(D67))</f>
         <v>100</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -7065,7 +6555,7 @@
         <v>48</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>215</v>
@@ -7100,7 +6590,7 @@
         <v>557</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -7145,7 +6635,7 @@
         <v>560</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -7190,7 +6680,7 @@
         <v>563</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -7235,7 +6725,7 @@
         <v>566</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -7280,7 +6770,7 @@
         <v>569</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -7325,7 +6815,7 @@
         <v>571</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -7370,7 +6860,7 @@
         <v>574</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -7415,7 +6905,7 @@
         <v>577</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -7460,7 +6950,7 @@
         <v>581</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -7505,7 +6995,7 @@
         <v>585</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -7550,7 +7040,7 @@
         <v>588</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -7595,7 +7085,7 @@
         <v>592</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -7623,7 +7113,7 @@
         <v>67</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -7640,7 +7130,7 @@
         <v>595</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -7685,7 +7175,7 @@
         <v>530</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -7695,7 +7185,7 @@
         <v>48</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>131</v>
@@ -7730,7 +7220,7 @@
         <v>533</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -7740,7 +7230,7 @@
         <v>48</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>104</v>
@@ -7775,7 +7265,7 @@
         <v>536</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -7785,7 +7275,7 @@
         <v>48</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>131</v>
@@ -7820,7 +7310,7 @@
         <v>539</v>
       </c>
       <c r="E84" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -7830,7 +7320,7 @@
         <v>50</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>67</v>
@@ -7865,7 +7355,7 @@
         <v>542</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -7910,7 +7400,7 @@
         <v>545</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -7955,7 +7445,7 @@
         <v>180</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -8000,7 +7490,7 @@
         <v>183</v>
       </c>
       <c r="E88" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -8025,10 +7515,10 @@
         <v>185</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -8045,7 +7535,7 @@
         <v>187</v>
       </c>
       <c r="E89" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -8090,7 +7580,7 @@
         <v>190</v>
       </c>
       <c r="E90" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -8100,7 +7590,7 @@
         <v>48</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>27</v>
@@ -8135,7 +7625,7 @@
         <v>193</v>
       </c>
       <c r="E91" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -8145,7 +7635,7 @@
         <v>48</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>195</v>
@@ -8180,7 +7670,7 @@
         <v>197</v>
       </c>
       <c r="E92" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -8225,7 +7715,7 @@
         <v>200</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -8235,7 +7725,7 @@
         <v>48</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>131</v>
@@ -8270,7 +7760,7 @@
         <v>203</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -8315,7 +7805,7 @@
         <v>247</v>
       </c>
       <c r="E95" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -8360,7 +7850,7 @@
         <v>250</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -8405,7 +7895,7 @@
         <v>253</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -8450,7 +7940,7 @@
         <v>256</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -8495,7 +7985,7 @@
         <v>259</v>
       </c>
       <c r="E99" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -8505,7 +7995,7 @@
         <v>48</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>27</v>
@@ -8540,7 +8030,7 @@
         <v>225</v>
       </c>
       <c r="E100" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -8585,7 +8075,7 @@
         <v>229</v>
       </c>
       <c r="E101" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -8630,7 +8120,7 @@
         <v>233</v>
       </c>
       <c r="E102" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -8675,7 +8165,7 @@
         <v>236</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -8720,7 +8210,7 @@
         <v>240</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -8765,7 +8255,7 @@
         <v>244</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -8810,7 +8300,7 @@
         <v>193</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -8820,7 +8310,7 @@
         <v>48</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>195</v>
@@ -8855,7 +8345,7 @@
         <v>206</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -8865,7 +8355,7 @@
         <v>48</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>141</v>
@@ -8883,7 +8373,7 @@
         <v>141</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -8900,7 +8390,7 @@
         <v>209</v>
       </c>
       <c r="E108" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -8910,7 +8400,7 @@
         <v>48</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>211</v>
@@ -8945,7 +8435,7 @@
         <v>213</v>
       </c>
       <c r="E109" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -8955,7 +8445,7 @@
         <v>30</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>215</v>
@@ -8990,7 +8480,7 @@
         <v>218</v>
       </c>
       <c r="E110" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -9000,7 +8490,7 @@
         <v>200</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>67</v>
@@ -9035,7 +8525,7 @@
         <v>221</v>
       </c>
       <c r="E111" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -9080,7 +8570,7 @@
         <v>203</v>
       </c>
       <c r="E112" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -9125,7 +8615,7 @@
         <v>143</v>
       </c>
       <c r="E113" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -9170,7 +8660,7 @@
         <v>147</v>
       </c>
       <c r="E114" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>261</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -9209,13 +8699,13 @@
         <v>37</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E115" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -9260,7 +8750,7 @@
         <v>115</v>
       </c>
       <c r="E116" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -9270,7 +8760,7 @@
         <v>48</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>117</v>
@@ -9305,7 +8795,7 @@
         <v>153</v>
       </c>
       <c r="E117" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -9350,7 +8840,7 @@
         <v>157</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -9360,7 +8850,7 @@
         <v>48</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>159</v>
@@ -9395,7 +8885,7 @@
         <v>162</v>
       </c>
       <c r="E119" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -9440,7 +8930,7 @@
         <v>165</v>
       </c>
       <c r="E120" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -9485,7 +8975,7 @@
         <v>168</v>
       </c>
       <c r="E121" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -9530,7 +9020,7 @@
         <v>172</v>
       </c>
       <c r="E122" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -9575,7 +9065,7 @@
         <v>176</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -9620,7 +9110,7 @@
         <v>111</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -9665,7 +9155,7 @@
         <v>115</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -9675,7 +9165,7 @@
         <v>48</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>117</v>
@@ -9710,7 +9200,7 @@
         <v>119</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -9755,7 +9245,7 @@
         <v>123</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -9800,7 +9290,7 @@
         <v>126</v>
       </c>
       <c r="E128" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -9845,7 +9335,7 @@
         <v>129</v>
       </c>
       <c r="E129" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -9855,7 +9345,7 @@
         <v>48</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>131</v>
@@ -9873,7 +9363,7 @@
         <v>131</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -9890,7 +9380,7 @@
         <v>133</v>
       </c>
       <c r="E130" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -9900,7 +9390,7 @@
         <v>50</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>131</v>
@@ -9935,7 +9425,7 @@
         <v>136</v>
       </c>
       <c r="E131" s="6">
-        <f t="shared" ref="E131:E194" si="2">SUM(LEN(D131))</f>
+        <f t="shared" ref="E131:E194" si="3">SUM(LEN(D131))</f>
         <v>106</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -9960,10 +9450,10 @@
         <v>27</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -9980,7 +9470,7 @@
         <v>139</v>
       </c>
       <c r="E132" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -9990,7 +9480,7 @@
         <v>48</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>141</v>
@@ -10008,7 +9498,7 @@
         <v>141</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -10022,14 +9512,14 @@
         <v>682</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="E133" s="6">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="E133" s="6">
-        <f t="shared" si="2"/>
-        <v>264</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>684</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>48</v>
@@ -10064,17 +9554,17 @@
         <v>37</v>
       </c>
       <c r="C134" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="E134" s="6">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F134" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="E134" s="6">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>687</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>48</v>
@@ -10109,41 +9599,41 @@
         <v>37</v>
       </c>
       <c r="C135" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="E135" s="6">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="F135" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="G135" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="I135" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E135" s="6">
-        <f t="shared" si="2"/>
-        <v>388</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>691</v>
-      </c>
       <c r="J135" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -10154,41 +9644,41 @@
         <v>37</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E136" s="6">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="I136" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="E136" s="6">
-        <f t="shared" si="2"/>
-        <v>349</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>695</v>
-      </c>
       <c r="J136" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -10199,17 +9689,17 @@
         <v>37</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>697</v>
+        <v>1000</v>
       </c>
       <c r="E137" s="6">
-        <f t="shared" si="2"/>
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>48</v>
@@ -10244,17 +9734,17 @@
         <v>37</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>700</v>
+        <v>1001</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" si="2"/>
-        <v>172</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>48</v>
@@ -10289,17 +9779,17 @@
         <v>37</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>703</v>
+        <v>1003</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" si="2"/>
-        <v>282</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>48</v>
@@ -10334,41 +9824,41 @@
         <v>37</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -10379,17 +9869,17 @@
         <v>68</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>48</v>
@@ -10424,17 +9914,17 @@
         <v>68</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>732</v>
+        <v>1004</v>
       </c>
       <c r="E142" s="6">
-        <f t="shared" si="2"/>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>48</v>
@@ -10469,17 +9959,17 @@
         <v>68</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>48</v>
@@ -10514,17 +10004,17 @@
         <v>68</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>738</v>
+        <v>1005</v>
       </c>
       <c r="E144" s="6">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>48</v>
@@ -10559,17 +10049,17 @@
         <v>68</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>740</v>
+        <v>1006</v>
       </c>
       <c r="E145" s="6">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>48</v>
@@ -10604,17 +10094,17 @@
         <v>68</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>743</v>
+        <v>1007</v>
       </c>
       <c r="E146" s="6">
-        <f t="shared" si="2"/>
-        <v>159</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>48</v>
@@ -10649,17 +10139,17 @@
         <v>68</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>746</v>
+        <v>1008</v>
       </c>
       <c r="E147" s="6">
-        <f t="shared" si="2"/>
-        <v>172</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>48</v>
@@ -10694,17 +10184,17 @@
         <v>68</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>748</v>
+        <v>1009</v>
       </c>
       <c r="E148" s="6">
-        <f t="shared" si="2"/>
-        <v>148</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>48</v>
@@ -10739,41 +10229,41 @@
         <v>86</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>751</v>
+        <v>1010</v>
       </c>
       <c r="E149" s="6">
-        <f t="shared" si="2"/>
-        <v>163</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="M149" s="6" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -10784,23 +10274,23 @@
         <v>86</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="E150" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="G150" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>55</v>
@@ -10829,41 +10319,41 @@
         <v>86</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>758</v>
+        <v>1011</v>
       </c>
       <c r="E151" s="6">
-        <f t="shared" si="2"/>
-        <v>152</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -10874,17 +10364,17 @@
         <v>86</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="E152" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G152" s="10" t="s">
         <v>48</v>
@@ -10919,17 +10409,17 @@
         <v>86</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="E153" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="G153" s="10" t="s">
         <v>48</v>
@@ -10964,41 +10454,41 @@
         <v>86</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="E154" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="G154" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -11009,41 +10499,41 @@
         <v>14</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>709</v>
+        <v>1012</v>
       </c>
       <c r="E155" s="6">
-        <f t="shared" si="2"/>
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G155" s="10">
         <v>200</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -11054,41 +10544,41 @@
         <v>14</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>713</v>
+        <v>1013</v>
       </c>
       <c r="E156" s="6">
-        <f t="shared" si="2"/>
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G156" s="10">
         <v>400</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -11099,41 +10589,41 @@
         <v>14</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>716</v>
+        <v>1014</v>
       </c>
       <c r="E157" s="6">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>82</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="G157" s="10">
         <v>400</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -11144,23 +10634,23 @@
         <v>14</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>719</v>
+        <v>1015</v>
       </c>
       <c r="E158" s="6">
-        <f t="shared" si="2"/>
-        <v>153</v>
+        <f t="shared" si="3"/>
+        <v>103</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G158" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>211</v>
@@ -11189,41 +10679,41 @@
         <v>14</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>722</v>
+        <v>1016</v>
       </c>
       <c r="E159" s="6">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="G159" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -11234,17 +10724,17 @@
         <v>14</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="E160" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="G160" s="10" t="s">
         <v>48</v>
@@ -11273,23 +10763,23 @@
     </row>
     <row r="161" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="E161" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
       <c r="G161" s="10" t="s">
         <v>48</v>
@@ -11318,23 +10808,23 @@
     </row>
     <row r="162" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>962</v>
+        <v>929</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
       <c r="E162" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
       <c r="G162" s="10" t="s">
         <v>48</v>
@@ -11363,119 +10853,119 @@
     </row>
     <row r="163" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
       <c r="E163" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="G163" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="E164" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="G164" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="M164" s="6" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>973</v>
+        <v>940</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>974</v>
+        <v>941</v>
       </c>
       <c r="E165" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
       <c r="G165" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>131</v>
@@ -11498,29 +10988,29 @@
     </row>
     <row r="166" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>977</v>
+        <v>944</v>
       </c>
       <c r="E166" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="G166" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>131</v>
@@ -11543,338 +11033,338 @@
     </row>
     <row r="167" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="E167" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="G167" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="E168" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
       <c r="G168" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="E169" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="G169" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M169" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
       <c r="E170" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="G170" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
       <c r="E171" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M171" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
       <c r="E172" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M172" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>980</v>
+        <v>947</v>
       </c>
       <c r="E173" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>981</v>
+        <v>948</v>
       </c>
       <c r="G173" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="E174" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
       <c r="G174" s="10" t="s">
         <v>48</v>
@@ -11903,68 +11393,68 @@
     </row>
     <row r="175" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>986</v>
+        <v>953</v>
       </c>
       <c r="E175" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>988</v>
+        <v>955</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="E176" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="G176" s="10" t="s">
         <v>48</v>
@@ -11993,23 +11483,23 @@
     </row>
     <row r="177" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>992</v>
+        <v>959</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>993</v>
+        <v>960</v>
       </c>
       <c r="E177" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="G177" s="10" t="s">
         <v>48</v>
@@ -12038,29 +11528,29 @@
     </row>
     <row r="178" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
       <c r="E178" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>67</v>
@@ -12083,74 +11573,74 @@
     </row>
     <row r="179" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="E179" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>1003</v>
+        <v>970</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="E180" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>94</v>
@@ -12173,29 +11663,29 @@
     </row>
     <row r="181" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="E181" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>94</v>
@@ -12218,29 +11708,29 @@
     </row>
     <row r="182" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="E182" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>27</v>
@@ -12263,23 +11753,23 @@
     </row>
     <row r="183" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="E183" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>48</v>
@@ -12308,74 +11798,74 @@
     </row>
     <row r="184" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="E184" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M184" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="E185" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>211</v>
@@ -12398,68 +11888,68 @@
     </row>
     <row r="186" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="E186" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M186" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>875</v>
+        <v>842</v>
       </c>
       <c r="E187" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>876</v>
+        <v>843</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>48</v>
@@ -12488,113 +11978,113 @@
     </row>
     <row r="188" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>877</v>
+        <v>844</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="E188" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>879</v>
+        <v>846</v>
       </c>
       <c r="G188" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="L188" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>881</v>
+        <v>848</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>882</v>
+        <v>849</v>
       </c>
       <c r="E189" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M189" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="E190" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>48</v>
@@ -12623,23 +12113,23 @@
     </row>
     <row r="191" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>886</v>
+        <v>853</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
       <c r="E191" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>48</v>
@@ -12663,118 +12153,118 @@
         <v>19</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="E192" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="E193" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="E194" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>48</v>
@@ -12803,29 +12293,29 @@
     </row>
     <row r="195" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="E195" s="6">
-        <f t="shared" ref="E195:E258" si="3">SUM(LEN(D195))</f>
+        <f t="shared" ref="E195:E258" si="4">SUM(LEN(D195))</f>
         <v>92</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="G195" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I195" s="6" t="s">
         <v>131</v>
@@ -12848,29 +12338,29 @@
     </row>
     <row r="196" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="E196" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I196" s="6" t="s">
         <v>27</v>
@@ -12893,29 +12383,29 @@
     </row>
     <row r="197" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="E197" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="G197" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I197" s="6" t="s">
         <v>36</v>
@@ -12938,23 +12428,23 @@
     </row>
     <row r="198" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="E198" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="G198" s="10" t="s">
         <v>48</v>
@@ -12983,23 +12473,23 @@
     </row>
     <row r="199" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="E199" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="G199" s="10" t="s">
         <v>48</v>
@@ -13028,74 +12518,74 @@
     </row>
     <row r="200" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="E200" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="M200" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="E201" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="G201" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I201" s="6" t="s">
         <v>27</v>
@@ -13118,29 +12608,29 @@
     </row>
     <row r="202" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="E202" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
       <c r="G202" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I202" s="6" t="s">
         <v>67</v>
@@ -13163,23 +12653,23 @@
     </row>
     <row r="203" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="E203" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="G203" s="10" t="s">
         <v>48</v>
@@ -13208,68 +12698,68 @@
     </row>
     <row r="204" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>901</v>
+        <v>868</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>902</v>
+        <v>869</v>
       </c>
       <c r="E204" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>903</v>
+        <v>870</v>
       </c>
       <c r="G204" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
       <c r="E205" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>907</v>
+        <v>874</v>
       </c>
       <c r="G205" s="10" t="s">
         <v>48</v>
@@ -13298,113 +12788,113 @@
     </row>
     <row r="206" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="E206" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
       <c r="G206" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="M206" s="6" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="E207" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="G207" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="L207" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="M207" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="E208" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="G208" s="10" t="s">
         <v>48</v>
@@ -13433,74 +12923,74 @@
     </row>
     <row r="209" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="E209" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="G209" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="M209" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="E210" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
       <c r="G210" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I210" s="6" t="s">
         <v>27</v>
@@ -13523,29 +13013,29 @@
     </row>
     <row r="211" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
       <c r="E211" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="G211" s="10">
         <v>30</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I211" s="6" t="s">
         <v>67</v>
@@ -13568,29 +13058,29 @@
     </row>
     <row r="212" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="E212" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="G212" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I212" s="6" t="s">
         <v>121</v>
@@ -13613,29 +13103,29 @@
     </row>
     <row r="213" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
       <c r="E213" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="G213" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I213" s="6" t="s">
         <v>95</v>
@@ -13658,29 +13148,29 @@
     </row>
     <row r="214" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
       <c r="E214" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
       <c r="G214" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I214" s="6" t="s">
         <v>215</v>
@@ -13703,29 +13193,29 @@
     </row>
     <row r="215" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>938</v>
+        <v>905</v>
       </c>
       <c r="E215" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
       <c r="G215" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I215" s="6" t="s">
         <v>223</v>
@@ -13740,10 +13230,10 @@
         <v>223</v>
       </c>
       <c r="M215" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N215" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -13760,7 +13250,7 @@
         <v>263</v>
       </c>
       <c r="E216" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F216" s="6" t="s">
@@ -13805,7 +13295,7 @@
         <v>266</v>
       </c>
       <c r="E217" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="F217" s="6" t="s">
@@ -13850,7 +13340,7 @@
         <v>269</v>
       </c>
       <c r="E218" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="F218" s="6" t="s">
@@ -13895,7 +13385,7 @@
         <v>272</v>
       </c>
       <c r="E219" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="F219" s="6" t="s">
@@ -13940,7 +13430,7 @@
         <v>275</v>
       </c>
       <c r="E220" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F220" s="6" t="s">
@@ -13985,7 +13475,7 @@
         <v>278</v>
       </c>
       <c r="E221" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="F221" s="6" t="s">
@@ -14030,7 +13520,7 @@
         <v>281</v>
       </c>
       <c r="E222" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F222" s="6" t="s">
@@ -14075,7 +13565,7 @@
         <v>284</v>
       </c>
       <c r="E223" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="F223" s="6" t="s">
@@ -14120,7 +13610,7 @@
         <v>287</v>
       </c>
       <c r="E224" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="F224" s="6" t="s">
@@ -14165,7 +13655,7 @@
         <v>314</v>
       </c>
       <c r="E225" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="F225" s="6" t="s">
@@ -14210,7 +13700,7 @@
         <v>317</v>
       </c>
       <c r="E226" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="F226" s="6" t="s">
@@ -14235,10 +13725,10 @@
         <v>319</v>
       </c>
       <c r="M226" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -14255,7 +13745,7 @@
         <v>321</v>
       </c>
       <c r="E227" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F227" s="6" t="s">
@@ -14300,7 +13790,7 @@
         <v>324</v>
       </c>
       <c r="E228" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F228" s="6" t="s">
@@ -14345,7 +13835,7 @@
         <v>327</v>
       </c>
       <c r="E229" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="F229" s="6" t="s">
@@ -14390,7 +13880,7 @@
         <v>330</v>
       </c>
       <c r="E230" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="F230" s="6" t="s">
@@ -14435,7 +13925,7 @@
         <v>332</v>
       </c>
       <c r="E231" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="F231" s="6" t="s">
@@ -14451,7 +13941,7 @@
         <v>334</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K231" s="6" t="s">
         <v>334</v>
@@ -14480,7 +13970,7 @@
         <v>336</v>
       </c>
       <c r="E232" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F232" s="6" t="s">
@@ -14525,7 +14015,7 @@
         <v>340</v>
       </c>
       <c r="E233" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="F233" s="6" t="s">
@@ -14570,7 +14060,7 @@
         <v>343</v>
       </c>
       <c r="E234" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="F234" s="6" t="s">
@@ -14615,7 +14105,7 @@
         <v>346</v>
       </c>
       <c r="E235" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="F235" s="6" t="s">
@@ -14660,7 +14150,7 @@
         <v>350</v>
       </c>
       <c r="E236" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="F236" s="6" t="s">
@@ -14705,7 +14195,7 @@
         <v>290</v>
       </c>
       <c r="E237" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="F237" s="6" t="s">
@@ -14730,10 +14220,10 @@
         <v>292</v>
       </c>
       <c r="M237" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N237" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -14750,7 +14240,7 @@
         <v>294</v>
       </c>
       <c r="E238" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="F238" s="6" t="s">
@@ -14760,7 +14250,7 @@
         <v>48</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I238" s="6" t="s">
         <v>296</v>
@@ -14795,7 +14285,7 @@
         <v>298</v>
       </c>
       <c r="E239" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="F239" s="6" t="s">
@@ -14840,7 +14330,7 @@
         <v>302</v>
       </c>
       <c r="E240" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="F240" s="6" t="s">
@@ -14850,7 +14340,7 @@
         <v>48</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I240" s="6" t="s">
         <v>304</v>
@@ -14885,7 +14375,7 @@
         <v>306</v>
       </c>
       <c r="E241" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="F241" s="6" t="s">
@@ -14898,13 +14388,13 @@
         <v>308</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L241" s="6" t="s">
         <v>308</v>
@@ -14930,7 +14420,7 @@
         <v>310</v>
       </c>
       <c r="E242" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="F242" s="6" t="s">
@@ -14940,7 +14430,7 @@
         <v>48</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I242" s="6" t="s">
         <v>312</v>
@@ -14958,7 +14448,7 @@
         <v>312</v>
       </c>
       <c r="N242" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -14975,7 +14465,7 @@
         <v>599</v>
       </c>
       <c r="E243" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F243" s="6" t="s">
@@ -15020,7 +14510,7 @@
         <v>603</v>
       </c>
       <c r="E244" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="F244" s="6" t="s">
@@ -15065,7 +14555,7 @@
         <v>607</v>
       </c>
       <c r="E245" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="F245" s="6" t="s">
@@ -15110,7 +14600,7 @@
         <v>611</v>
       </c>
       <c r="E246" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F246" s="6" t="s">
@@ -15155,7 +14645,7 @@
         <v>614</v>
       </c>
       <c r="E247" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F247" s="6" t="s">
@@ -15180,10 +14670,10 @@
         <v>616</v>
       </c>
       <c r="M247" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N247" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -15200,7 +14690,7 @@
         <v>618</v>
       </c>
       <c r="E248" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F248" s="6" t="s">
@@ -15245,7 +14735,7 @@
         <v>645</v>
       </c>
       <c r="E249" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="F249" s="6" t="s">
@@ -15290,7 +14780,7 @@
         <v>648</v>
       </c>
       <c r="E250" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="F250" s="6" t="s">
@@ -15335,7 +14825,7 @@
         <v>650</v>
       </c>
       <c r="E251" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="F251" s="6" t="s">
@@ -15380,7 +14870,7 @@
         <v>652</v>
       </c>
       <c r="E252" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="F252" s="6" t="s">
@@ -15425,7 +14915,7 @@
         <v>655</v>
       </c>
       <c r="E253" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="F253" s="6" t="s">
@@ -15470,7 +14960,7 @@
         <v>660</v>
       </c>
       <c r="E254" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="F254" s="6" t="s">
@@ -15515,7 +15005,7 @@
         <v>662</v>
       </c>
       <c r="E255" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="F255" s="6" t="s">
@@ -15560,7 +15050,7 @@
         <v>665</v>
       </c>
       <c r="E256" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F256" s="6" t="s">
@@ -15605,7 +15095,7 @@
         <v>669</v>
       </c>
       <c r="E257" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="F257" s="6" t="s">
@@ -15650,7 +15140,7 @@
         <v>673</v>
       </c>
       <c r="E258" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="F258" s="6" t="s">
@@ -15695,7 +15185,7 @@
         <v>676</v>
       </c>
       <c r="E259" s="6">
-        <f t="shared" ref="E259:E320" si="4">SUM(LEN(D259))</f>
+        <f t="shared" ref="E259:E320" si="5">SUM(LEN(D259))</f>
         <v>88</v>
       </c>
       <c r="F259" s="6" t="s">
@@ -15740,7 +15230,7 @@
         <v>679</v>
       </c>
       <c r="E260" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="F260" s="6" t="s">
@@ -15785,7 +15275,7 @@
         <v>621</v>
       </c>
       <c r="E261" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="F261" s="6" t="s">
@@ -15830,7 +15320,7 @@
         <v>625</v>
       </c>
       <c r="E262" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="F262" s="6" t="s">
@@ -15875,7 +15365,7 @@
         <v>628</v>
       </c>
       <c r="E263" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="F263" s="6" t="s">
@@ -15885,7 +15375,7 @@
         <v>48</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I263" s="6" t="s">
         <v>630</v>
@@ -15920,7 +15410,7 @@
         <v>632</v>
       </c>
       <c r="E264" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="F264" s="6" t="s">
@@ -15965,7 +15455,7 @@
         <v>637</v>
       </c>
       <c r="E265" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F265" s="6" t="s">
@@ -15975,7 +15465,7 @@
         <v>48</v>
       </c>
       <c r="H265" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I265" s="6" t="s">
         <v>639</v>
@@ -16010,7 +15500,7 @@
         <v>641</v>
       </c>
       <c r="E266" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="F266" s="6" t="s">
@@ -16043,68 +15533,68 @@
     </row>
     <row r="267" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>773</v>
+        <v>1017</v>
       </c>
       <c r="E267" s="6">
-        <f t="shared" si="4"/>
-        <v>112</v>
+        <f t="shared" si="5"/>
+        <v>96</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="G267" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J267" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K267" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L267" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M267" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N267" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="E268" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="G268" s="10" t="s">
         <v>48</v>
@@ -16133,23 +15623,23 @@
     </row>
     <row r="269" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="E269" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="G269" s="10" t="s">
         <v>48</v>
@@ -16178,68 +15668,68 @@
     </row>
     <row r="270" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>782</v>
+        <v>1018</v>
       </c>
       <c r="E270" s="6">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f t="shared" si="5"/>
+        <v>103</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="G270" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J270" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K270" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L270" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M270" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N270" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="E271" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="G271" s="10" t="s">
         <v>48</v>
@@ -16268,68 +15758,68 @@
     </row>
     <row r="272" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>788</v>
+        <v>1019</v>
       </c>
       <c r="E272" s="6">
-        <f t="shared" si="4"/>
-        <v>171</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="G272" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H272" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="J272" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="K272" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="L272" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="M272" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="N272" s="6" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>791</v>
+        <v>1020</v>
       </c>
       <c r="E273" s="6">
-        <f t="shared" si="4"/>
-        <v>159</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="G273" s="10" t="s">
         <v>48</v>
@@ -16358,23 +15848,23 @@
     </row>
     <row r="274" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="E274" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="G274" s="10">
         <v>150</v>
@@ -16403,23 +15893,23 @@
     </row>
     <row r="275" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="E275" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="G275" s="10" t="s">
         <v>48</v>
@@ -16448,23 +15938,23 @@
     </row>
     <row r="276" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>815</v>
+        <v>1021</v>
       </c>
       <c r="E276" s="6">
-        <f t="shared" si="4"/>
-        <v>143</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="G276" s="10" t="s">
         <v>48</v>
@@ -16493,23 +15983,23 @@
     </row>
     <row r="277" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="E277" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="G277" s="10" t="s">
         <v>48</v>
@@ -16538,23 +16028,23 @@
     </row>
     <row r="278" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>820</v>
+        <v>1022</v>
       </c>
       <c r="E278" s="6">
-        <f t="shared" si="4"/>
-        <v>131</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="G278" s="10" t="s">
         <v>48</v>
@@ -16583,23 +16073,23 @@
     </row>
     <row r="279" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>823</v>
+        <v>1023</v>
       </c>
       <c r="E279" s="6">
-        <f t="shared" si="4"/>
-        <v>133</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="G279" s="10" t="s">
         <v>48</v>
@@ -16628,23 +16118,23 @@
     </row>
     <row r="280" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>826</v>
+        <v>1024</v>
       </c>
       <c r="E280" s="6">
-        <f t="shared" si="4"/>
-        <v>217</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="G280" s="10" t="s">
         <v>48</v>
@@ -16673,113 +16163,113 @@
     </row>
     <row r="281" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>828</v>
+        <v>796</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="E281" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="G281" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H281" s="6" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="J281" s="6" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="K281" s="6" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="L281" s="6" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="M281" s="6" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="N281" s="6" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
     </row>
     <row r="282" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="E282" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="G282" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I282" s="6" t="s">
         <v>590</v>
       </c>
       <c r="J282" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K282" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L282" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M282" s="6" t="s">
         <v>590</v>
       </c>
       <c r="N282" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="283" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
       <c r="E283" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="G283" s="10" t="s">
         <v>48</v>
@@ -16808,23 +16298,23 @@
     </row>
     <row r="284" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>839</v>
+        <v>1025</v>
       </c>
       <c r="E284" s="6">
-        <f t="shared" si="4"/>
-        <v>174</v>
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
       <c r="G284" s="10" t="s">
         <v>48</v>
@@ -16853,23 +16343,23 @@
     </row>
     <row r="285" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="E285" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="G285" s="10" t="s">
         <v>48</v>
@@ -16898,74 +16388,74 @@
     </row>
     <row r="286" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
       <c r="E286" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="G286" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H286" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I286" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J286" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L286" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M286" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N286" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>794</v>
+        <v>1026</v>
       </c>
       <c r="E287" s="6">
-        <f t="shared" si="4"/>
-        <v>183</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="G287" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I287" s="6" t="s">
         <v>27</v>
@@ -16983,91 +16473,91 @@
         <v>27</v>
       </c>
       <c r="N287" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>797</v>
+        <v>1027</v>
       </c>
       <c r="E288" s="6">
-        <f t="shared" si="4"/>
-        <v>157</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="G288" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H288" s="6" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="I288" s="6" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="J288" s="6" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="K288" s="6" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="L288" s="6" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="M288" s="6" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="N288" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="289" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>801</v>
+        <v>1028</v>
       </c>
       <c r="E289" s="6">
-        <f t="shared" si="4"/>
-        <v>229</v>
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="G289" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I289" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J289" s="6" t="s">
         <v>223</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L289" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M289" s="6" t="s">
         <v>223</v>
@@ -17078,74 +16568,74 @@
     </row>
     <row r="290" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>782</v>
+        <v>1018</v>
       </c>
       <c r="E290" s="6">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f t="shared" si="5"/>
+        <v>103</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="G290" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H290" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I290" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J290" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L290" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M290" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="N290" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>803</v>
+        <v>1029</v>
       </c>
       <c r="E291" s="6">
-        <f t="shared" si="4"/>
-        <v>117</v>
+        <f t="shared" si="5"/>
+        <v>95</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="G291" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H291" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I291" s="6" t="s">
         <v>215</v>
@@ -17168,23 +16658,23 @@
     </row>
     <row r="292" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>806</v>
+        <v>1030</v>
       </c>
       <c r="E292" s="6">
-        <f t="shared" si="4"/>
-        <v>190</v>
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="G292" s="10" t="s">
         <v>48</v>
@@ -17225,7 +16715,7 @@
         <v>484</v>
       </c>
       <c r="E293" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="F293" s="6" t="s">
@@ -17270,7 +16760,7 @@
         <v>487</v>
       </c>
       <c r="E294" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="F294" s="6" t="s">
@@ -17315,7 +16805,7 @@
         <v>490</v>
       </c>
       <c r="E295" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="F295" s="6" t="s">
@@ -17360,7 +16850,7 @@
         <v>493</v>
       </c>
       <c r="E296" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="F296" s="6" t="s">
@@ -17405,7 +16895,7 @@
         <v>497</v>
       </c>
       <c r="E297" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="F297" s="6" t="s">
@@ -17444,17 +16934,17 @@
         <v>37</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1028</v>
+        <v>995</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>1029</v>
+        <v>996</v>
       </c>
       <c r="E298" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="G298" s="10" t="s">
         <v>48</v>
@@ -17495,7 +16985,7 @@
         <v>446</v>
       </c>
       <c r="E299" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="F299" s="6" t="s">
@@ -17505,7 +16995,7 @@
         <v>60</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I299" s="6" t="s">
         <v>27</v>
@@ -17540,7 +17030,7 @@
         <v>450</v>
       </c>
       <c r="E300" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="F300" s="6" t="s">
@@ -17550,7 +17040,7 @@
         <v>120</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I300" s="6" t="s">
         <v>31</v>
@@ -17585,7 +17075,7 @@
         <v>454</v>
       </c>
       <c r="E301" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="F301" s="6" t="s">
@@ -17630,7 +17120,7 @@
         <v>457</v>
       </c>
       <c r="E302" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="F302" s="6" t="s">
@@ -17675,7 +17165,7 @@
         <v>460</v>
       </c>
       <c r="E303" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="F303" s="6" t="s">
@@ -17720,7 +17210,7 @@
         <v>463</v>
       </c>
       <c r="E304" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="F304" s="6" t="s">
@@ -17730,7 +17220,7 @@
         <v>48</v>
       </c>
       <c r="H304" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I304" s="6" t="s">
         <v>36</v>
@@ -17765,7 +17255,7 @@
         <v>466</v>
       </c>
       <c r="E305" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="F305" s="6" t="s">
@@ -17810,7 +17300,7 @@
         <v>469</v>
       </c>
       <c r="E306" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="F306" s="6" t="s">
@@ -17855,7 +17345,7 @@
         <v>472</v>
       </c>
       <c r="E307" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="F307" s="6" t="s">
@@ -17900,7 +17390,7 @@
         <v>475</v>
       </c>
       <c r="E308" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="F308" s="6" t="s">
@@ -17945,7 +17435,7 @@
         <v>478</v>
       </c>
       <c r="E309" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="F309" s="6" t="s">
@@ -17990,7 +17480,7 @@
         <v>481</v>
       </c>
       <c r="E310" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="F310" s="6" t="s">
@@ -18000,19 +17490,19 @@
         <v>48</v>
       </c>
       <c r="H310" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I310" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="J310" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="K310" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="L310" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="M310" s="6" t="s">
         <v>31</v>
@@ -18035,7 +17525,7 @@
         <v>500</v>
       </c>
       <c r="E311" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="F311" s="6" t="s">
@@ -18080,7 +17570,7 @@
         <v>504</v>
       </c>
       <c r="E312" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="F312" s="6" t="s">
@@ -18125,7 +17615,7 @@
         <v>463</v>
       </c>
       <c r="E313" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="F313" s="6" t="s">
@@ -18135,7 +17625,7 @@
         <v>48</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I313" s="6" t="s">
         <v>36</v>
@@ -18170,7 +17660,7 @@
         <v>509</v>
       </c>
       <c r="E314" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="F314" s="6" t="s">
@@ -18215,7 +17705,7 @@
         <v>513</v>
       </c>
       <c r="E315" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="F315" s="6" t="s">
@@ -18260,7 +17750,7 @@
         <v>478</v>
       </c>
       <c r="E316" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="F316" s="6" t="s">
@@ -18305,7 +17795,7 @@
         <v>517</v>
       </c>
       <c r="E317" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="F317" s="6" t="s">
@@ -18333,7 +17823,7 @@
         <v>27</v>
       </c>
       <c r="N317" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -18350,7 +17840,7 @@
         <v>520</v>
       </c>
       <c r="E318" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="F318" s="6" t="s">
@@ -18395,7 +17885,7 @@
         <v>523</v>
       </c>
       <c r="E319" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="F319" s="6" t="s">
@@ -18405,7 +17895,7 @@
         <v>48</v>
       </c>
       <c r="H319" s="6" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="I319" s="6" t="s">
         <v>27</v>
@@ -18436,11 +17926,11 @@
       <c r="C320" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D320" s="6" t="s">
+      <c r="D320" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E320" s="6">
-        <f t="shared" si="4"/>
+      <c r="E320" s="7">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="F320" s="7" t="s">
@@ -18492,7 +17982,7 @@
     <sortCondition ref="B3:B321" customList="宗教與古蹟,休閒與生態,商圈,藝文與文化"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>110</formula>
     </cfRule>
   </conditionalFormatting>

--- a/完整景點資料庫.xlsx
+++ b/完整景點資料庫.xlsx
@@ -3544,7 +3544,7 @@
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16651,7 +16651,6 @@
       <c r="M320" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M319"/>
   <sortState ref="A3:N321">
     <sortCondition ref="A3:A321" customList="北投,士林,大同,中山,松山,內湖,萬華,中正,大安,信義,南港,文山"/>
     <sortCondition ref="B3:B321" customList="宗教與古蹟,休閒與生態,商圈,藝文與文化"/>

--- a/完整景點資料庫.xlsx
+++ b/完整景點資料庫.xlsx
@@ -16649,7 +16649,6 @@
       <c r="M320" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M319"/>
   <sortState ref="A3:N321">
     <sortCondition ref="A3:A321" customList="北投,士林,大同,中山,松山,內湖,萬華,中正,大安,信義,南港,文山"/>
     <sortCondition ref="B3:B321" customList="宗教與古蹟,休閒與生態,商圈,藝文與文化"/>

--- a/完整景點資料庫.xlsx
+++ b/完整景點資料庫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB745F3-9309-4B25-94B1-4DE4654F0AF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B46A7-8CA7-4EDA-AF13-B382C3B67E7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2798,9 +2798,6 @@
     <t>南港捷運站內總共有６幅大型彩色壁畫，在幾米細膩的筆觸及觀察下，列車未到，車上風光已經一覽無遺，有看報的阿伯、通勤的上班族，以及沒有座位、百無聊賴的小孩，幻想著巫婆飛過車窗，小豬、兔子在原野上奔跑，與火車競賽的畫面。</t>
   </si>
   <si>
-    <t>竹子湖位於陽明山國家公園核心區。兩百年前漢人初到此地開墾時，因見土地泥濘且遍地竹林，於是稱此為竹子湖。海芋季期間（２/２７至４/１７），及五月下旬盛開的紫藍色繡球花，相當適合拍照留念。</t>
-  </si>
-  <si>
     <t>慈祐宮興建於１７５３年，距今已有兩百多年的歷史，主要信奉的是黑面媽祖。本宮內三川殿的石獅，由於呈現的是「雄獅張嘴、母獅閉嘴」的傳統，在臺灣十分少見，因此也成了鎮殿之寶。</t>
   </si>
   <si>
@@ -3128,6 +3125,10 @@
   </si>
   <si>
     <t>臺灣科學教育館，地下室為兒童益智探索館； ３, ４樓有生命科學、自然科學展；５, ６樓有物質科學、數學與地球科學展；７, ８樓為特展，可以看到世界性的科學展覽。館內設有各種體驗裝置，可與展品互動。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹子湖位於陽明山國家公園核心區。兩百年前漢人初到此地開墾時，因見土地泥濘且遍地竹林，於是稱此為竹子湖。海芋季期間（２／２７至４／１７），及五月下旬盛開的紫藍色繡球花，相當適合拍照留念。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3546,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17"/>
@@ -3614,7 +3615,7 @@
         <v>334</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>335</v>
@@ -3778,7 +3779,7 @@
         <v>347</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>348</v>
@@ -3901,7 +3902,7 @@
         <v>305</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>306</v>
@@ -4106,7 +4107,7 @@
         <v>320</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>918</v>
+        <v>1027</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>321</v>
@@ -4311,7 +4312,7 @@
         <v>336</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>337</v>
@@ -4598,7 +4599,7 @@
         <v>334</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>335</v>
@@ -4680,7 +4681,7 @@
         <v>347</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>348</v>
@@ -4803,7 +4804,7 @@
         <v>378</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>315</v>
@@ -4926,7 +4927,7 @@
         <v>385</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>386</v>
@@ -5090,7 +5091,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>39</v>
@@ -5539,7 +5540,7 @@
         <v>70</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>71</v>
@@ -5621,7 +5622,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>78</v>
@@ -5662,7 +5663,7 @@
         <v>80</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>81</v>
@@ -5785,7 +5786,7 @@
         <v>94</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>95</v>
@@ -5949,7 +5950,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>27</v>
@@ -5990,7 +5991,7 @@
         <v>29</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>30</v>
@@ -6031,7 +6032,7 @@
         <v>38</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>39</v>
@@ -6154,7 +6155,7 @@
         <v>471</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>472</v>
@@ -6318,7 +6319,7 @@
         <v>481</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>482</v>
@@ -6400,7 +6401,7 @@
         <v>486</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>487</v>
@@ -6523,7 +6524,7 @@
         <v>491</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>492</v>
@@ -6646,7 +6647,7 @@
         <v>500</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>501</v>
@@ -6687,7 +6688,7 @@
         <v>503</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>504</v>
@@ -6851,7 +6852,7 @@
         <v>459</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>460</v>
@@ -6892,7 +6893,7 @@
         <v>461</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>462</v>
@@ -6933,7 +6934,7 @@
         <v>463</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>464</v>
@@ -7056,7 +7057,7 @@
         <v>471</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>472</v>
@@ -7179,7 +7180,7 @@
         <v>157</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>158</v>
@@ -7220,7 +7221,7 @@
         <v>159</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>160</v>
@@ -7343,7 +7344,7 @@
         <v>168</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>169</v>
@@ -7507,7 +7508,7 @@
         <v>214</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>215</v>
@@ -7548,7 +7549,7 @@
         <v>216</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>217</v>
@@ -7630,7 +7631,7 @@
         <v>189</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>190</v>
@@ -7917,7 +7918,7 @@
         <v>173</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>174</v>
@@ -8081,7 +8082,7 @@
         <v>186</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>187</v>
@@ -8163,7 +8164,7 @@
         <v>123</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>124</v>
@@ -8204,7 +8205,7 @@
         <v>126</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>127</v>
@@ -8245,7 +8246,7 @@
         <v>865</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>128</v>
@@ -8286,7 +8287,7 @@
         <v>101</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>129</v>
@@ -8327,7 +8328,7 @@
         <v>130</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>131</v>
@@ -8409,7 +8410,7 @@
         <v>138</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>139</v>
@@ -8532,7 +8533,7 @@
         <v>145</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>146</v>
@@ -8655,7 +8656,7 @@
         <v>101</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>102</v>
@@ -8737,7 +8738,7 @@
         <v>107</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>108</v>
@@ -8778,7 +8779,7 @@
         <v>109</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>110</v>
@@ -8860,7 +8861,7 @@
         <v>115</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>116</v>
@@ -8901,7 +8902,7 @@
         <v>117</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>118</v>
@@ -9065,7 +9066,7 @@
         <v>590</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>591</v>
@@ -9106,7 +9107,7 @@
         <v>593</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>594</v>
@@ -9147,7 +9148,7 @@
         <v>596</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>597</v>
@@ -9188,7 +9189,7 @@
         <v>598</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>599</v>
@@ -9229,7 +9230,7 @@
         <v>600</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>601</v>
@@ -9311,7 +9312,7 @@
         <v>620</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>621</v>
@@ -9352,7 +9353,7 @@
         <v>622</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>623</v>
@@ -9557,7 +9558,7 @@
         <v>632</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>631</v>
@@ -9721,7 +9722,7 @@
         <v>641</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>642</v>
@@ -9762,7 +9763,7 @@
         <v>644</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>645</v>
@@ -9803,7 +9804,7 @@
         <v>646</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>647</v>
@@ -9844,7 +9845,7 @@
         <v>648</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>649</v>
@@ -9885,7 +9886,7 @@
         <v>605</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>606</v>
@@ -10008,7 +10009,7 @@
         <v>612</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>613</v>
@@ -10172,7 +10173,7 @@
         <v>811</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>812</v>
@@ -10254,7 +10255,7 @@
         <v>817</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>818</v>
@@ -10295,7 +10296,7 @@
         <v>820</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>821</v>
@@ -10418,7 +10419,7 @@
         <v>797</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>798</v>
@@ -10500,7 +10501,7 @@
         <v>802</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>803</v>
@@ -10705,7 +10706,7 @@
         <v>829</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>830</v>
@@ -10746,7 +10747,7 @@
         <v>832</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>833</v>
@@ -10869,7 +10870,7 @@
         <v>840</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>841</v>
@@ -10910,7 +10911,7 @@
         <v>844</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>845</v>
@@ -11074,7 +11075,7 @@
         <v>856</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>857</v>
@@ -11320,7 +11321,7 @@
         <v>742</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>720</v>
@@ -11484,7 +11485,7 @@
         <v>751</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>752</v>
@@ -11648,7 +11649,7 @@
         <v>719</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>720</v>
@@ -11771,7 +11772,7 @@
         <v>728</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>729</v>
@@ -12058,7 +12059,7 @@
         <v>771</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>772</v>
@@ -12099,7 +12100,7 @@
         <v>773</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>774</v>
@@ -12755,7 +12756,7 @@
         <v>270</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>271</v>
@@ -12796,7 +12797,7 @@
         <v>272</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>273</v>
@@ -12919,7 +12920,7 @@
         <v>281</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>282</v>
@@ -13042,7 +13043,7 @@
         <v>289</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>290</v>
@@ -13124,7 +13125,7 @@
         <v>295</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>296</v>
@@ -13165,7 +13166,7 @@
         <v>297</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>298</v>
@@ -13411,7 +13412,7 @@
         <v>263</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>264</v>
@@ -13616,7 +13617,7 @@
         <v>527</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>528</v>
@@ -13657,7 +13658,7 @@
         <v>529</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>530</v>
@@ -13698,7 +13699,7 @@
         <v>532</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>533</v>
@@ -13739,7 +13740,7 @@
         <v>554</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>555</v>
@@ -13780,7 +13781,7 @@
         <v>556</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>555</v>
@@ -13862,7 +13863,7 @@
         <v>558</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>559</v>
@@ -13903,7 +13904,7 @@
         <v>560</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>561</v>
@@ -13944,7 +13945,7 @@
         <v>564</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>517</v>
@@ -14190,7 +14191,7 @@
         <v>582</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>583</v>
@@ -14231,7 +14232,7 @@
         <v>534</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>535</v>
@@ -14272,7 +14273,7 @@
         <v>537</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E262" s="6" t="s">
         <v>538</v>
@@ -14354,7 +14355,7 @@
         <v>543</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>544</v>
@@ -14436,7 +14437,7 @@
         <v>551</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>552</v>
@@ -14477,7 +14478,7 @@
         <v>652</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>653</v>
@@ -14518,7 +14519,7 @@
         <v>654</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>655</v>
@@ -14559,7 +14560,7 @@
         <v>656</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E269" s="6" t="s">
         <v>657</v>
@@ -14682,7 +14683,7 @@
         <v>663</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E272" s="6" t="s">
         <v>664</v>
@@ -14887,7 +14888,7 @@
         <v>685</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E277" s="6" t="s">
         <v>686</v>
@@ -14928,7 +14929,7 @@
         <v>687</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>688</v>
@@ -15010,7 +15011,7 @@
         <v>691</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>692</v>
@@ -15133,7 +15134,7 @@
         <v>700</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>701</v>
@@ -15297,7 +15298,7 @@
         <v>667</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E287" s="6" t="s">
         <v>668</v>
@@ -15338,7 +15339,7 @@
         <v>670</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E288" s="6" t="s">
         <v>666</v>
@@ -15379,7 +15380,7 @@
         <v>656</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E289" s="6" t="s">
         <v>657</v>
@@ -15502,7 +15503,7 @@
         <v>421</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>422</v>
@@ -15543,7 +15544,7 @@
         <v>423</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>424</v>
@@ -15707,7 +15708,7 @@
         <v>866</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>867</v>
@@ -15748,7 +15749,7 @@
         <v>388</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>389</v>
@@ -15994,7 +15995,7 @@
         <v>407</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>408</v>
@@ -16076,7 +16077,7 @@
         <v>411</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E306" s="6" t="s">
         <v>412</v>
@@ -16281,7 +16282,7 @@
         <v>437</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>438</v>
@@ -16527,7 +16528,7 @@
         <v>450</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E317" s="6" t="s">
         <v>451</v>
